--- a/Serien/Excel_Uebungsserien/Exercise Series 1.xlsx
+++ b/Serien/Excel_Uebungsserien/Exercise Series 1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\Zivikurse\Uni\Programmieren\Serie 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batsc\Documents\GitHub\Programmieren-fuer-Naturwissenschaften\Serien\Excel_Uebungsserien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D30E3F-F2E5-4230-912A-77C11E6CA6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCD3335-51B1-427A-9CFA-D506A4148753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{986C77D2-9639-4981-A6AA-2F1D63C452B6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{986C77D2-9639-4981-A6AA-2F1D63C452B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stundenplan" sheetId="1" r:id="rId1"/>
-    <sheet name="Preisliste" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1 Stundenplan" sheetId="1" r:id="rId1"/>
+    <sheet name="2.1 Preisliste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stundenplan!$F$17:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.1 Stundenplan'!$F$17:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Serie 1</t>
   </si>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>Mango</t>
+  </si>
+  <si>
+    <t>Benutzen Sie die Schriftart Century Gothic.</t>
+  </si>
+  <si>
+    <t>Der Titel hat eine Schriftgrösse von 28 und ist fett formatiert. Er ist zentriert und nimmt Spalten B bis G ein.</t>
+  </si>
+  <si>
+    <t>Die Zeilenhöhe von Zeile 3 beträgt 33.</t>
+  </si>
+  <si>
+    <t>Die Spaltenbreite von den Spalten B bis G beträgt 20.</t>
+  </si>
+  <si>
+    <t>Die Wochentage sind fett formatiert und befinden sich in der Mitte der jeweiligen Zelle.</t>
+  </si>
+  <si>
+    <t>In Spalte B befinden sich die Start- und Endzeiten der Vorlesungen. Diese befinden sich jeweils auf zwei Zeilen in der gleichen Zelle und sind rechtsbündig ausgerichtet.</t>
+  </si>
+  <si>
+    <t>Der gesamte Stundenplan sowie dessen Titel verfügen über einen dicken Rahmen.</t>
+  </si>
+  <si>
+    <t>Innerhalb des eigentlichen Stundenplans sind alle Rahmenlinien eingeblendet.</t>
+  </si>
+  <si>
+    <t>Rechts unter dem Stundenplan im Bereich F16:G18 befindet sich eine Tabelle, die den jeweiligen Raum der Veranstaltungen auflistet. Die Schriftgrösse innerhalb dieser Tabelle beträgt 10.</t>
+  </si>
+  <si>
+    <t>Die Hintergrund- und Schriftfarbe für den Titel sowie die Vorlesungsblöcke können nach Belieben gewählt werden.</t>
+  </si>
+  <si>
+    <t>Die Vorlesungstitel sind in der Mitte der Vorlesungsblöcke angeordnet und kursiv formatiert. Es handelt sich um einen zweizeiligen Text.</t>
+  </si>
+  <si>
+    <t>Achten Sie darauf, dass die Vorlesungstitel einen guten Kontrast zu der Hintergrundfarbe des Vorlesungsblocks haben.</t>
+  </si>
+  <si>
+    <t>Direkt einzugeben sind die Werte im Bereich B2:C10 und in B2:G4. Die Werte in den Zellen</t>
+  </si>
+  <si>
+    <t>D5:G10 sollen mit einer geeigneten Formel berechnet werden, wobei Sie die Werte aus Zeile 4</t>
+  </si>
+  <si>
+    <t>und Spalte C in der Formel verwenden müssen. Geben Sie die Formel in Zelle D5 ein und lassen</t>
+  </si>
+  <si>
+    <t>sie Excel die restlichen Zellen automatisch ausfüllen.</t>
   </si>
 </sst>
 </file>
@@ -150,10 +198,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="174" formatCode="&quot;Fr.&quot;* ###0.00"/>
-    <numFmt numFmtId="176" formatCode="0\ &quot;Stück&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;Fr.&quot;* ###0.00"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot;Stück&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,44 +210,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,9 +219,48 @@
       <b/>
       <sz val="72"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -497,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,20 +555,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -526,44 +599,28 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,181 +937,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD505D1-1476-46E5-9A6A-B2A65467900A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="91.9" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="87.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="23"/>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
-      <c r="F17" s="6" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1065,7 +1213,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="G11:G12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1073,189 +1221,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA270FD0-DDD2-46D8-A732-18C464B0EB87}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="3">
         <v>0.8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25">
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="3">
         <f>$D$4*C5</f>
         <v>4</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="3">
         <f>$E$4*C5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="3">
         <f>$F$4*C5</f>
         <v>2.5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="3">
         <f>$G$4*C5</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25">
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:D10" si="0">$D$4*C6</f>
         <v>8</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:E10" si="1">$E$4*C6</f>
         <v>10</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="3">
         <f t="shared" ref="F6:F10" si="2">$F$4*C6</f>
         <v>5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G10" si="3">$G$4*C6</f>
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5">
         <v>50</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
         <v>114.99999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25">
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="5">
         <v>500</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="5">
         <v>1000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>2300</v>
       </c>
